--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553359.59</v>
+        <v>570864.72</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138339.9</v>
+        <v>142716.18</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250838.68</v>
+        <v>252477.48</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248338.3</v>
+        <v>245415.47</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20452.16</v>
+        <v>27079.14</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33730.45</v>
+        <v>45892.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,68 +436,91 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570864.72</v>
+        <v>251121.94</v>
+      </c>
+      <c r="C2" t="n">
+        <v>250446.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142716.18</v>
+        <v>243971.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>251985.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252477.48</v>
+        <v>24341.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21066.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245415.47</v>
+        <v>43368.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37199.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27079.14</v>
+        <v>140700.97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>140174.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45892.63</v>
+        <v>562803.88</v>
+      </c>
+      <c r="C7" t="n">
+        <v>560697.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,61 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251121.94</v>
-      </c>
-      <c r="C2" t="n">
-        <v>250446.63</v>
+        <v>560697.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243971.47</v>
-      </c>
-      <c r="C3" t="n">
-        <v>251985.17</v>
+        <v>140174.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24341.76</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21066.07</v>
+        <v>250446.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43368.71</v>
-      </c>
-      <c r="C5" t="n">
-        <v>37199.5</v>
+        <v>251985.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140700.97</v>
-      </c>
-      <c r="C6" t="n">
-        <v>140174.34</v>
+        <v>21066.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562803.88</v>
-      </c>
-      <c r="C7" t="n">
-        <v>560697.37</v>
+        <v>37199.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,99 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560697.37</v>
+        <v>250446.63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>244796.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140174.34</v>
+        <v>251985.17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>250883.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250446.63</v>
+        <v>21066.07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19393.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251985.17</v>
+        <v>37199.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34561.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>21066.07</v>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>232168.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37199.5</v>
+        <v>140174.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>156360.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>560697.37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>781803.0699999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>244796.51</v>
       </c>
+      <c r="D2" t="n">
+        <v>248279.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>250883.82</v>
       </c>
+      <c r="D3" t="n">
+        <v>255162.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>19393.31</v>
       </c>
+      <c r="D4" t="n">
+        <v>21144.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -495,6 +509,9 @@
       </c>
       <c r="C5" t="n">
         <v>34561.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41032.75</v>
       </c>
     </row>
     <row r="6">
@@ -507,6 +524,9 @@
       <c r="C6" t="n">
         <v>232168.01</v>
       </c>
+      <c r="D6" t="n">
+        <v>230228.56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
       <c r="C7" t="n">
         <v>156360.61</v>
       </c>
+      <c r="D7" t="n">
+        <v>159169.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -532,6 +555,9 @@
       </c>
       <c r="C8" t="n">
         <v>781803.0699999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>795847.77</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>248279.1</v>
       </c>
+      <c r="E2" t="n">
+        <v>251574.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>255162.84</v>
       </c>
+      <c r="E3" t="n">
+        <v>249070.92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>21144.52</v>
       </c>
+      <c r="E4" t="n">
+        <v>21747.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -512,6 +526,9 @@
       </c>
       <c r="D5" t="n">
         <v>41032.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43731.78</v>
       </c>
     </row>
     <row r="6">
@@ -527,6 +544,7 @@
       <c r="D6" t="n">
         <v>230228.56</v>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -543,6 +561,9 @@
       <c r="D7" t="n">
         <v>159169.55</v>
       </c>
+      <c r="E7" t="n">
+        <v>141531.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -558,6 +579,9 @@
       </c>
       <c r="D8" t="n">
         <v>795847.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>566124.4300000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>251574.31</v>
       </c>
+      <c r="F2" t="n">
+        <v>247890.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>249070.92</v>
       </c>
+      <c r="F3" t="n">
+        <v>251798.89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>21747.42</v>
       </c>
+      <c r="F4" t="n">
+        <v>21653.45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -529,6 +543,9 @@
       </c>
       <c r="E5" t="n">
         <v>43731.78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45521.09</v>
       </c>
     </row>
     <row r="6">
@@ -545,6 +562,7 @@
         <v>230228.56</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +582,9 @@
       <c r="E7" t="n">
         <v>141531.11</v>
       </c>
+      <c r="F7" t="n">
+        <v>141715.92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -582,6 +603,9 @@
       </c>
       <c r="E8" t="n">
         <v>566124.4300000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>566863.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>247890.23</v>
       </c>
+      <c r="G2" t="n">
+        <v>249037.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>251798.89</v>
       </c>
+      <c r="G3" t="n">
+        <v>250163.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>21653.45</v>
       </c>
+      <c r="G4" t="n">
+        <v>22608.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -546,6 +560,9 @@
       </c>
       <c r="F5" t="n">
         <v>45521.09</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36968.44</v>
       </c>
     </row>
     <row r="6">
@@ -563,6 +580,7 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +603,9 @@
       <c r="F7" t="n">
         <v>141715.92</v>
       </c>
+      <c r="G7" t="n">
+        <v>139694.38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -606,6 +627,9 @@
       </c>
       <c r="F8" t="n">
         <v>566863.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>558777.51</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>249037.44</v>
       </c>
+      <c r="H2" t="n">
+        <v>251941.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>250163.45</v>
       </c>
+      <c r="H3" t="n">
+        <v>254741.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>22608.18</v>
       </c>
+      <c r="H4" t="n">
+        <v>21553.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>36968.44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35296.51</v>
       </c>
     </row>
     <row r="6">
@@ -581,6 +598,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -606,6 +624,9 @@
       <c r="G7" t="n">
         <v>139694.38</v>
       </c>
+      <c r="H7" t="n">
+        <v>140883.29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -630,6 +651,9 @@
       </c>
       <c r="G8" t="n">
         <v>558777.51</v>
+      </c>
+      <c r="H8" t="n">
+        <v>563533.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>251941.62</v>
       </c>
+      <c r="I2" t="n">
+        <v>244553.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>254741.14</v>
       </c>
+      <c r="I3" t="n">
+        <v>255068.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>21553.89</v>
       </c>
+      <c r="I4" t="n">
+        <v>19571.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -580,6 +594,9 @@
       </c>
       <c r="H5" t="n">
         <v>35296.51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35435.91</v>
       </c>
     </row>
     <row r="6">
@@ -599,6 +616,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -627,6 +645,9 @@
       <c r="H7" t="n">
         <v>140883.29</v>
       </c>
+      <c r="I7" t="n">
+        <v>138657.42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -654,6 +675,9 @@
       </c>
       <c r="H8" t="n">
         <v>563533.16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>554629.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>244553.76</v>
       </c>
+      <c r="J2" t="n">
+        <v>247086.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>255068.02</v>
       </c>
+      <c r="J3" t="n">
+        <v>259282.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>19571.97</v>
       </c>
+      <c r="J4" t="n">
+        <v>19602.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -597,6 +611,9 @@
       </c>
       <c r="I5" t="n">
         <v>35435.91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36387.05</v>
       </c>
     </row>
     <row r="6">
@@ -617,6 +634,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -648,6 +666,9 @@
       <c r="I7" t="n">
         <v>138657.42</v>
       </c>
+      <c r="J7" t="n">
+        <v>140589.47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -678,6 +699,9 @@
       </c>
       <c r="I8" t="n">
         <v>554629.66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>562357.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>247086.31</v>
       </c>
+      <c r="K2" t="n">
+        <v>247033.74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>259282.25</v>
       </c>
+      <c r="K3" t="n">
+        <v>256103.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>19602.27</v>
       </c>
+      <c r="K4" t="n">
+        <v>19628.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -614,6 +628,9 @@
       </c>
       <c r="J5" t="n">
         <v>36387.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37439.48</v>
       </c>
     </row>
     <row r="6">
@@ -635,6 +652,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -669,6 +687,9 @@
       <c r="J7" t="n">
         <v>140589.47</v>
       </c>
+      <c r="K7" t="n">
+        <v>140051.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -702,6 +723,9 @@
       </c>
       <c r="J8" t="n">
         <v>562357.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>560205.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>247033.74</v>
       </c>
+      <c r="L2" t="n">
+        <v>245122.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>256103.58</v>
       </c>
+      <c r="L3" t="n">
+        <v>259366.74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>19628.33</v>
       </c>
+      <c r="L4" t="n">
+        <v>23616.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,6 +645,9 @@
       </c>
       <c r="K5" t="n">
         <v>37439.48</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34779.4</v>
       </c>
     </row>
     <row r="6">
@@ -653,6 +670,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -690,6 +708,9 @@
       <c r="K7" t="n">
         <v>140051.28</v>
       </c>
+      <c r="L7" t="n">
+        <v>140721.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -726,6 +747,9 @@
       </c>
       <c r="K8" t="n">
         <v>560205.13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>562884.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>245122.79</v>
       </c>
+      <c r="M2" t="n">
+        <v>247080.14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>259366.74</v>
       </c>
+      <c r="M3" t="n">
+        <v>248732.63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>23616.06</v>
       </c>
+      <c r="M4" t="n">
+        <v>22899.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -648,6 +662,9 @@
       </c>
       <c r="L5" t="n">
         <v>34779.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>44847.47</v>
       </c>
     </row>
     <row r="6">
@@ -671,6 +688,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -711,6 +729,9 @@
       <c r="L7" t="n">
         <v>140721.25</v>
       </c>
+      <c r="M7" t="n">
+        <v>140889.91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -750,6 +771,9 @@
       </c>
       <c r="L8" t="n">
         <v>562884.99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>563559.63</v>
       </c>
     </row>
   </sheetData>
